--- a/data/outputs/OR_altmetric/49.xlsx
+++ b/data/outputs/OR_altmetric/49.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE64"/>
+  <dimension ref="A1:CF64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1035,6 +1040,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1288,6 +1296,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1537,6 +1548,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1792,6 +1806,9 @@
         <v>0</v>
       </c>
       <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2035,6 +2052,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2284,6 +2304,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2537,6 +2560,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2790,6 +2816,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3039,6 +3068,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3288,6 +3320,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3537,6 +3572,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3790,6 +3828,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4049,6 +4090,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4298,6 +4342,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4539,6 +4586,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4788,6 +4838,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5047,6 +5100,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5312,6 +5368,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5583,6 +5642,9 @@
         <v>0</v>
       </c>
       <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5828,6 +5890,9 @@
         <v>0</v>
       </c>
       <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6071,6 +6136,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6328,6 +6396,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6575,6 +6646,9 @@
         <v>0</v>
       </c>
       <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6818,6 +6892,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7075,6 +7152,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7320,6 +7400,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7569,6 +7652,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7826,6 +7912,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8083,6 +8172,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8356,6 +8448,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8615,6 +8710,9 @@
         <v>0</v>
       </c>
       <c r="CE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8868,6 +8966,9 @@
         <v>0</v>
       </c>
       <c r="CE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9111,6 +9212,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9352,6 +9456,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9605,6 +9712,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9858,6 +9968,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10115,6 +10228,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10360,6 +10476,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10617,6 +10736,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10862,6 +10984,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11131,6 +11256,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11390,6 +11518,9 @@
         <v>0</v>
       </c>
       <c r="CE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11641,6 +11772,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11890,6 +12024,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12139,6 +12276,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12388,6 +12528,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12633,6 +12776,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12886,6 +13032,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13131,6 +13280,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13376,6 +13528,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13621,6 +13776,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13868,6 +14026,9 @@
         <v>0</v>
       </c>
       <c r="CE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14109,6 +14270,9 @@
         <v>0</v>
       </c>
       <c r="CE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14340,6 +14504,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14591,6 +14758,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>3.55</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14842,6 +15012,9 @@
         <v>0</v>
       </c>
       <c r="CE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15101,6 +15274,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15346,6 +15522,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15591,6 +15770,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15836,6 +16018,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16083,6 +16268,9 @@
         <v>0</v>
       </c>
       <c r="CE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16318,6 +16506,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16583,6 +16774,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
